--- a/xls/subject_terms_analysis.xlsx
+++ b/xls/subject_terms_analysis.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="275">
   <si>
     <t>Subject Terms</t>
   </si>
@@ -847,6 +847,9 @@
   </si>
   <si>
     <t>130:239</t>
+  </si>
+  <si>
+    <t>% of terms assigned</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1352,7 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1363,6 +1366,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1923,13 +1927,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>6</c:v>
@@ -1951,8 +1955,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="340189088"/>
-        <c:axId val="340189648"/>
+        <c:axId val="337931408"/>
+        <c:axId val="337930848"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2094,13 +2098,13 @@
                         <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>63</c:v>
+                        <c:v>62</c:v>
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>54</c:v>
+                        <c:v>55</c:v>
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>24</c:v>
@@ -2117,7 +2121,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="340189088"/>
+        <c:axId val="337931408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340189648"/>
+        <c:crossAx val="337930848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2168,7 +2172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340189648"/>
+        <c:axId val="337930848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2219,7 +2223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340189088"/>
+        <c:crossAx val="337931408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3210,7 +3214,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3363,7 +3367,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,8 +3537,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="491728976"/>
-        <c:axId val="491729536"/>
+        <c:axId val="496629600"/>
+        <c:axId val="496630160"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3630,7 +3634,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="491728976"/>
+        <c:axId val="496629600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3673,7 +3677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491729536"/>
+        <c:crossAx val="496630160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3681,7 +3685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="491729536"/>
+        <c:axId val="496630160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3732,7 +3736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491728976"/>
+        <c:crossAx val="496629600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3746,6 +3750,127 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3675102423975244E-4"/>
+          <c:y val="8.7792718847414353E-2"/>
+          <c:w val="0.23970627399271205"/>
+          <c:h val="0.83429678917347483"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Most</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Prevalent Types of Subject Terms per Year</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3760,7 +3885,1274 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Article Genre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Authorship or Publishing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concrete Object</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Historical Event or Entity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Philosophical Concepts and Ideologies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rhetorical Technique</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="399542144"/>
+        <c:axId val="399541584"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Adaptations, Performances, and Translations</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$3:$I$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Character</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$6:$I$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Genre</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$8:$I$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Geographical Location</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$9:$I$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Group of People</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$10:$I$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Person</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$12:$I$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Religion</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$14:$I$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Title of Work</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$17:$I$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="399542144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399541584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="399541584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399542144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3854,6 +5246,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4899,6 +6331,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4936,13 +6871,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>252412</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4956,6 +6891,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5227,10 +7192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M252"/>
+  <dimension ref="A1:R252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5240,7 +7205,7 @@
     <col min="3" max="3" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5250,8 +7215,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -5273,8 +7241,21 @@
       <c r="J2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6">
+        <v>1950</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1980</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>2010</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -5309,8 +7290,27 @@
       <c r="M3" s="5">
         <v>0.11319444444444444</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="O3" s="7">
+        <f>G3/G18</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" ref="P3:R3" si="1">H3/H18</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="R3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2605042016806723E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -5345,8 +7345,27 @@
       <c r="M4" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="O4" s="7">
+        <f>G4/G18</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" ref="P4:R4" si="2">H4/H18</f>
+        <v>1.1627906976744186E-2</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="2"/>
+        <v>2.100840336134454E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -5381,8 +7400,27 @@
       <c r="M5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="O5" s="7">
+        <f>G5/G18</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" ref="P5:R5" si="3">H5/H18</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="3"/>
+        <v>8.1818181818181818E-2</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="3"/>
+        <v>7.5630252100840331E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5411,8 +7449,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="O6" s="7">
+        <f>G6/G18</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" ref="P6:R6" si="4">H6/H18</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="4"/>
+        <v>1.680672268907563E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -5441,8 +7498,27 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="O7" s="7">
+        <f>G7/G18</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" ref="P7:R7" si="5">H7/H18</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="5"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="5"/>
+        <v>5.0420168067226892E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -5471,8 +7547,27 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="O8" s="7">
+        <f>G8/G18</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" ref="P8:R8" si="6">H8/H18</f>
+        <v>5.8139534883720929E-2</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="6"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="6"/>
+        <v>3.3613445378151259E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -5501,8 +7596,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O9" s="7">
+        <f>G9/G18</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" ref="P9:R9" si="7">H9/H18</f>
+        <v>1.1627906976744186E-2</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="7"/>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" si="7"/>
+        <v>8.4033613445378148E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -5531,8 +7645,27 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="O10" s="7">
+        <f>G10/G18</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" ref="P10:R10" si="8">H10/H18</f>
+        <v>3.4883720930232558E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="8"/>
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="8"/>
+        <v>3.3613445378151259E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -5561,8 +7694,27 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="O11" s="7">
+        <f>G11/G18</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" ref="P11:R11" si="9">H11/H18</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11818181818181818</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" si="9"/>
+        <v>7.9831932773109238E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -5591,8 +7743,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="O12" s="7">
+        <f>G12/G18</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" ref="P12:R12" si="10">H12/H18</f>
+        <v>1.1627906976744186E-2</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" si="10"/>
+        <v>3.6363636363636362E-2</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" si="10"/>
+        <v>2.5210084033613446E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -5615,14 +7786,33 @@
       </c>
       <c r="I13">
         <f>COUNTIF(C130:C239,"philosophical concepts and ideologies")</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="O13" s="7">
+        <f>G13/G18</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" ref="P13:R13" si="11">H13/H18</f>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="11"/>
+        <v>0.34545454545454546</v>
+      </c>
+      <c r="R13" s="7">
+        <f t="shared" si="11"/>
+        <v>0.26050420168067229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -5651,8 +7841,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="O14" s="7">
+        <f>G14/G18</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" ref="P14:R14" si="12">H14/H18</f>
+        <v>1.1627906976744186E-2</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" si="12"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="R14" s="7">
+        <f t="shared" si="12"/>
+        <v>1.2605042016806723E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -5675,14 +7884,33 @@
       </c>
       <c r="I15">
         <f>COUNTIF(C130:C239,"rhetorical technique")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ref="J14:J18" si="1">SUM(G15:I15)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J15:J18" si="13">SUM(G15:I15)</f>
+        <v>55</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="O15" s="7">
+        <f>G15/G18</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" ref="P15:R15" si="14">H15/H18</f>
+        <v>0.33720930232558138</v>
+      </c>
+      <c r="Q15" s="7">
+        <f t="shared" si="14"/>
+        <v>0.15454545454545454</v>
+      </c>
+      <c r="R15" s="7">
+        <f t="shared" si="14"/>
+        <v>0.23109243697478993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -5708,11 +7936,30 @@
         <v>6</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N16" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="O16" s="7">
+        <f>G16/G18</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" ref="P16:R16" si="15">H16/H18</f>
+        <v>0.12790697674418605</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="15"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" si="15"/>
+        <v>0.10084033613445378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>59</v>
       </c>
@@ -5738,11 +7985,30 @@
         <v>3</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N17" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O17" s="7">
+        <f>G17/G18</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" ref="P17:R17" si="16">H17/H18</f>
+        <v>4.6511627906976744E-2</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="16"/>
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="R17" s="7">
+        <f t="shared" si="16"/>
+        <v>3.7815126050420166E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>61</v>
       </c>
@@ -5768,11 +8034,30 @@
         <v>110</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>238</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N18" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="O18" s="7">
+        <f>G18/G18</f>
+        <v>1</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" ref="P18:R18" si="17">H18/H18</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>87</v>
       </c>
@@ -5802,7 +8087,7 @@
         <v>2.4791666666666665</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>97</v>
       </c>
@@ -5813,7 +8098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>113</v>
       </c>
@@ -5824,7 +8109,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>120</v>
       </c>
@@ -5835,7 +8120,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>126</v>
       </c>
@@ -5846,7 +8131,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>138</v>
       </c>
@@ -5857,7 +8142,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>149</v>
       </c>
@@ -5868,7 +8153,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>167</v>
       </c>
@@ -5879,7 +8164,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>168</v>
       </c>
@@ -5890,7 +8175,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>171</v>
       </c>
@@ -5901,7 +8186,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>177</v>
       </c>
@@ -5912,7 +8197,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>187</v>
       </c>
@@ -5923,7 +8208,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>192</v>
       </c>
@@ -5934,7 +8219,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>199</v>
       </c>
@@ -7537,7 +9822,7 @@
         <v>2010</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">

--- a/xls/subject_terms_analysis.xlsx
+++ b/xls/subject_terms_analysis.xlsx
@@ -1955,8 +1955,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="337931408"/>
-        <c:axId val="337930848"/>
+        <c:axId val="396685696"/>
+        <c:axId val="396685136"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2121,7 +2121,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337931408"/>
+        <c:axId val="396685696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +2164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337930848"/>
+        <c:crossAx val="396685136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2172,7 +2172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337930848"/>
+        <c:axId val="396685136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337931408"/>
+        <c:crossAx val="396685696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3537,8 +3537,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="496629600"/>
-        <c:axId val="496630160"/>
+        <c:axId val="394570512"/>
+        <c:axId val="394571072"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3634,7 +3634,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="496629600"/>
+        <c:axId val="394570512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3677,7 +3677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496630160"/>
+        <c:crossAx val="394571072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3685,7 +3685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496630160"/>
+        <c:axId val="394571072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3736,7 +3736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496629600"/>
+        <c:crossAx val="394570512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4355,8 +4355,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="399542144"/>
-        <c:axId val="399541584"/>
+        <c:axId val="392919024"/>
+        <c:axId val="392919584"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4446,7 +4446,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$6</c15:sqref>
@@ -4473,7 +4473,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
@@ -4497,7 +4497,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$6:$I$6</c15:sqref>
@@ -4527,7 +4527,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$8</c15:sqref>
@@ -4554,7 +4554,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
@@ -4578,7 +4578,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$8:$I$8</c15:sqref>
@@ -4608,7 +4608,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$9</c15:sqref>
@@ -4637,7 +4637,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
@@ -4661,7 +4661,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$9:$I$9</c15:sqref>
@@ -4691,7 +4691,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$10</c15:sqref>
@@ -4720,7 +4720,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
@@ -4744,7 +4744,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$10:$I$10</c15:sqref>
@@ -4774,7 +4774,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$12</c15:sqref>
@@ -4803,7 +4803,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
@@ -4827,7 +4827,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$12:$I$12</c15:sqref>
@@ -4857,7 +4857,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$14</c15:sqref>
@@ -4886,7 +4886,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
@@ -4910,7 +4910,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$14:$I$14</c15:sqref>
@@ -4940,7 +4940,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$17</c15:sqref>
@@ -4970,7 +4970,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$2:$I$2</c15:sqref>
@@ -4994,7 +4994,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$17:$I$17</c15:sqref>
@@ -5022,7 +5022,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399542144"/>
+        <c:axId val="392919024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5065,7 +5065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399541584"/>
+        <c:crossAx val="392919584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5073,7 +5073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399541584"/>
+        <c:axId val="392919584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5124,7 +5124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399542144"/>
+        <c:crossAx val="392919024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7194,8 +7194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xls/subject_terms_analysis.xlsx
+++ b/xls/subject_terms_analysis.xlsx
@@ -1955,8 +1955,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="396685696"/>
-        <c:axId val="396685136"/>
+        <c:axId val="371137984"/>
+        <c:axId val="371138544"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2121,7 +2121,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="396685696"/>
+        <c:axId val="371137984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +2164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396685136"/>
+        <c:crossAx val="371138544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2172,7 +2172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="396685136"/>
+        <c:axId val="371138544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396685696"/>
+        <c:crossAx val="371137984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3537,8 +3537,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="394570512"/>
-        <c:axId val="394571072"/>
+        <c:axId val="371149744"/>
+        <c:axId val="316926672"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3634,7 +3634,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="394570512"/>
+        <c:axId val="371149744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3677,7 +3677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394571072"/>
+        <c:crossAx val="316926672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3685,7 +3685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394571072"/>
+        <c:axId val="316926672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3736,7 +3736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394570512"/>
+        <c:crossAx val="371149744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4355,8 +4355,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="392919024"/>
-        <c:axId val="392919584"/>
+        <c:axId val="316936752"/>
+        <c:axId val="316937312"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -5022,7 +5022,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="392919024"/>
+        <c:axId val="316936752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5065,7 +5065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392919584"/>
+        <c:crossAx val="316937312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5073,7 +5073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392919584"/>
+        <c:axId val="316937312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5124,7 +5124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392919024"/>
+        <c:crossAx val="316936752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7194,8 +7194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
